--- a/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
+++ b/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_12_04_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>Node1</t>
   </si>
   <si>
-    <t xml:space="preserve">verify 40V Load On Addition Deletion of Ethernet </t>
-  </si>
-  <si>
-    <t>verify40VLoadOnEthernetAddDelete</t>
-  </si>
-  <si>
     <t>Gallery Type</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Device Type</t>
   </si>
   <si>
-    <t>801 H</t>
-  </si>
-  <si>
     <t>801 CH</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>Call points</t>
+  </si>
+  <si>
+    <t>verify AL and NL on addition od devices in PLX and XLM loop</t>
+  </si>
+  <si>
+    <t>VerifyNormalLoadandAlarmLoadPropertyOnAdditionDeletionOfDevicesInPLXOrXLMLoop</t>
+  </si>
+  <si>
+    <t>LPAV 800 - R/W</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,6 +281,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -567,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,13 +592,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -607,13 +609,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -624,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
@@ -672,48 +674,48 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
-        <v>0.27800000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F8" s="5">
         <v>19</v>
@@ -725,30 +727,30 @@
         <v>10</v>
       </c>
       <c r="I8" s="3">
-        <v>0.27800000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J8" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>0.253</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E9" s="3">
-        <v>0.45</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="F9" s="5">
         <v>19</v>
@@ -760,30 +762,30 @@
         <v>15</v>
       </c>
       <c r="I9" s="3">
-        <v>0.253</v>
+        <v>0.33</v>
       </c>
       <c r="J9" s="3">
-        <v>0.45</v>
+        <v>0.754</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>0.31890000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="E10" s="3">
-        <v>0.57652199999999998</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F10" s="5">
         <v>19</v>
@@ -795,30 +797,30 @@
         <v>20</v>
       </c>
       <c r="I10" s="3">
-        <v>0.31890000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="J10" s="3">
-        <v>0.58052599999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
-        <v>0.27700000000000002</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F11" s="5">
         <v>19</v>
@@ -830,19 +832,73 @@
         <v>25</v>
       </c>
       <c r="I11" s="3">
-        <v>0.27700000000000002</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="J11" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.501</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -858,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,74 +926,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
+++ b/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Color Codes</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>LPAV 800 - R/W</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -288,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +606,7 @@
     <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -604,7 +619,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -621,7 +636,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -638,7 +653,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -653,7 +668,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
         <v>7</v>
@@ -663,10 +678,10 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -700,8 +715,14 @@
       <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -735,8 +756,14 @@
       <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -770,8 +797,14 @@
       <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -805,8 +838,14 @@
       <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -840,8 +879,14 @@
       <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -851,14 +896,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>

--- a/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
+++ b/Test Data/TC_150_Verify_Battery_Standby_and_Battery_Alarm_on_Addition_Deletion_of_Devices_in_PLX_or_XLM_Loop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,10 +162,10 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -295,14 +295,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L9" sqref="L9:M11"/>
     </sheetView>
   </sheetViews>
@@ -607,13 +607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -627,10 +627,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -756,10 +756,10 @@
       <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -797,10 +797,10 @@
       <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -838,10 +838,10 @@
       <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -879,10 +879,10 @@
       <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
